--- a/InfoCollectionDescriptions.xlsx
+++ b/InfoCollectionDescriptions.xlsx
@@ -5,18 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sammy\OneDrive\_Boulot\Documents\GitHub Repositories\Wade-Smith-Dump-Exchange-M365-Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/_Boulot/Documents/GitHub Repositories/Wade-Smith-Dump-Exchange-M365-Information/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FC37780-FC5C-4814-89DE-273140F000B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="8_{0FC37780-FC5C-4814-89DE-273140F000B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7E10F001-E2BB-4D6B-A62B-7E2C8608B0DC}"/>
   <bookViews>
-    <workbookView xWindow="-22597" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{78FCC786-F405-4868-9061-F1F7338A97D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{78FCC786-F405-4868-9061-F1F7338A97D8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="230">
   <si>
     <t>Get-OrganizationRelationship | FL &gt; d:\OnPrem_OrgRel.txt </t>
   </si>
@@ -307,9 +312,6 @@
     <t>d:\OnPrem_AuthConfigCert.txt</t>
   </si>
   <si>
-    <t>d:\OnPrem_AutoDVirDir.tx</t>
-  </si>
-  <si>
     <t>d:\OnPrem_TestOAuthConnectivityEWS.txt</t>
   </si>
   <si>
@@ -443,16 +445,307 @@
   </si>
   <si>
     <t>Get-MsolServicePrincipalCredential -ServicePrincipalName "00000002-0000-0ff1-ce00-000000000000" -ReturnKeyValues $true</t>
+  </si>
+  <si>
+    <t>Get-OrganizationRelationship  </t>
+  </si>
+  <si>
+    <t>Get-IntraOrganizationConnector  </t>
+  </si>
+  <si>
+    <t>Get-AvailabilityAddressSpace  </t>
+  </si>
+  <si>
+    <t>Get-SharingPolicy  </t>
+  </si>
+  <si>
+    <t>Get-WebServicesVirtualDirectory  </t>
+  </si>
+  <si>
+    <t>Get-AutoDiscoverVirtualDirectory  </t>
+  </si>
+  <si>
+    <t>Get-FederationTrust  </t>
+  </si>
+  <si>
+    <t>Get-FederatedOrganizationIdentifier  </t>
+  </si>
+  <si>
+    <t>Test-FederationTrustCertificate  </t>
+  </si>
+  <si>
+    <t>Get-RemoteMailbox "&lt;Cloud Mailbox&gt;"  </t>
+  </si>
+  <si>
+    <t>Get-Mailbox "&lt;On-Premises Mailbox&gt;"  </t>
+  </si>
+  <si>
+    <t>Get-ExchangeServer  FT name, serverrole, AdminDisplayVersion</t>
+  </si>
+  <si>
+    <t>Get-HybridConfiguration  </t>
+  </si>
+  <si>
+    <t>Get-AvailabilityAddressSpace   </t>
+  </si>
+  <si>
+    <t>Get-MailUser "&lt;On-Premises Mailbox&gt;"   </t>
+  </si>
+  <si>
+    <t>Get-Mailbox "&lt;Cloud Mailbox&gt;"  </t>
+  </si>
+  <si>
+    <t>Get-IntraOrganizationConfiguration  </t>
+  </si>
+  <si>
+    <t>Get-AuthServer  </t>
+  </si>
+  <si>
+    <t>Get-PartnerApplication  </t>
+  </si>
+  <si>
+    <t>Get-AuthConfig  </t>
+  </si>
+  <si>
+    <t>Test-OrganizationRelationship</t>
+  </si>
+  <si>
+    <t>Get-FederationTrust  Set-FederationTrust</t>
+  </si>
+  <si>
+    <t>Get-FederationInformation</t>
+  </si>
+  <si>
+    <t>Test-FederationTrust</t>
+  </si>
+  <si>
+    <t>Get-PartnerApplication 00000002-0000-0ff1-ce00-000000000000  Select-Object</t>
+  </si>
+  <si>
+    <t>Get-ExchangeCertificate</t>
+  </si>
+  <si>
+    <t>Test-OAuthConnectivity</t>
+  </si>
+  <si>
+    <t>Foreach ($i in (Get-ExchangeServer)) {Write-Host $i.FQDN; Get-ExchangeCertificate</t>
+  </si>
+  <si>
+    <t>Get-AuthServer</t>
+  </si>
+  <si>
+    <t>Get-MsolServicePrincipal</t>
+  </si>
+  <si>
+    <t>(Get-MsolServicePrincipal</t>
+  </si>
+  <si>
+    <t>Get-MsolServicePrincipalCredential</t>
+  </si>
+  <si>
+    <t>Command Line</t>
+  </si>
+  <si>
+    <t>Exchange Management Shell</t>
+  </si>
+  <si>
+    <t>PS Module</t>
+  </si>
+  <si>
+    <t>Exchange Online Services</t>
+  </si>
+  <si>
+    <t>MSOnline</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Get-MsolServicePrincipal -ServicePrincipalName "00000002-0000-0ff1-ce00-000000000000" | FL  &gt; $OutputFilesCollection[53]</t>
+  </si>
+  <si>
+    <t>Get-MsolServicePrincipalCredential -ServicePrincipalName "00000002-0000-0ff1-ce00-000000000000" -ReturnKeyValues $true &gt; $OutputFilesCollection[55]</t>
+  </si>
+  <si>
+    <t>(Get-MsolServicePrincipal -ServicePrincipalName "00000002-0000-0ff1-ce00-000000000000").ServicePrincipalNames &gt; $OutputFilesCollection[54]</t>
+  </si>
+  <si>
+    <t>Get-AuthServer -Identity 00000001-0000-0000-c000-000000000000 | FL &gt; $OutputFilesCollection[46]</t>
+  </si>
+  <si>
+    <t>Get-AvailabilityAddressSpace |  FL &gt; $OutputFilesCollection[19]</t>
+  </si>
+  <si>
+    <t>Get-FederationInformation -DomainName "domainname.com" | FL &gt; $OutputFilesCollection[22]</t>
+  </si>
+  <si>
+    <t>Get-FederatedOrganizationIdentifier | FL &gt; $OutputFilesCollection[23]</t>
+  </si>
+  <si>
+    <t>Get-FederationTrust | FL &gt; $OutputFilesCollection[21]</t>
+  </si>
+  <si>
+    <t>Get-IntraOrganizationConnector | FL &gt; $OutputFilesCollection[18]</t>
+  </si>
+  <si>
+    <t>Get-IntraOrganizationConnector | FL &gt; $OutputFilesCollection[44]</t>
+  </si>
+  <si>
+    <t>Get-IntraOrganizationConfiguration | FL &gt; $OutputFilesCollection[45]</t>
+  </si>
+  <si>
+    <t>Get-Mailbox "&lt;Cloud Mailbox&gt;" | FL &gt; $OutputFilesCollection[25]</t>
+  </si>
+  <si>
+    <t>Get-Mailbox "&lt;Cloud Mailbox&gt;" | FL &gt; $OutputFilesCollection[52]</t>
+  </si>
+  <si>
+    <t>Get-MailUser "&lt;On-Premises Mailbox&gt;" | FL  &gt; $OutputFilesCollection[24]</t>
+  </si>
+  <si>
+    <t>Get-MailUser "&lt;On-Premises Mailbox&gt;" | FL  &gt; $OutputFilesCollection[51]</t>
+  </si>
+  <si>
+    <t>Get-OrganizationRelationship | FL &gt; $OutputFilesCollection[16]</t>
+  </si>
+  <si>
+    <t>Get-OrganizationRelationship | FL &gt; $OutputFilesCollection[50]</t>
+  </si>
+  <si>
+    <t>Get-PartnerApplication | FL &gt; $OutputFilesCollection[47]</t>
+  </si>
+  <si>
+    <t>Get-SharingPolicy | FL &gt; $OutputFilesCollection[20]</t>
+  </si>
+  <si>
+    <t>Test-OAuthConnectivity -Service AutoD -TargetUri "&lt;OnPremises Autodiscover.svc endpoint, for example, https://mail.domain.com/autodiscover/autodiscover.svc&gt;" -Mailbox "&lt;Exchange Online Mailbox&gt;" -Verbose | FL &gt; $OutputFilesCollection[49]</t>
+  </si>
+  <si>
+    <t>Test-OAuthConnectivity -Service EWS -TargetUri "&lt;OnPremises External EWS url, for example, https://mail.domain.com/ews/exchange.asmx&gt;" -Mailbox "&lt;Exchange Online Mailbox&gt;" -Verbose | FL &gt; $OutputFilesCollection[48]</t>
+  </si>
+  <si>
+    <t>Test-OrganizationRelationship -UserIdentity "Cloud Mailbox"  -Identity "Exchange Online to On Premises Organization Relationship" -Verbose &gt; $OutputFilesCollection[17]</t>
+  </si>
+  <si>
+    <t>Get-AuthConfig | FL &gt; $OutputFilesCollection[31]</t>
+  </si>
+  <si>
+    <t>Get-ExchangeCertificate -Thumbprint (Get-AuthConfig).CurrentCertificateThumbprint | FL &gt; $OutputFilesCollection[32]</t>
+  </si>
+  <si>
+    <t>Get-AuthServer | FL &gt; $OutputFilesCollection[28]</t>
+  </si>
+  <si>
+    <t>Get-AutoDiscoverVirtualDirectory | FL &gt; $OutputFilesCollection[34]</t>
+  </si>
+  <si>
+    <t>Get-AutoDiscoverVirtualDirectory | FL &gt; $OutputFilesCollection[6]</t>
+  </si>
+  <si>
+    <t>Get-AvailabilityAddressSpace | FL &gt; $OutputFilesCollection[3]</t>
+  </si>
+  <si>
+    <t>Get-AvailabilityAddressSpace | FL &gt; $OutputFilesCollection[36]</t>
+  </si>
+  <si>
+    <t>Foreach ($i in (Get-ExchangeServer)) {Write-Host $i.FQDN; Get-ExchangeCertificate -Server $i.Identity} &gt; $OutputFilesCollection[42]</t>
+  </si>
+  <si>
+    <t>Get-FederationInformation -Domainname "&lt;Customer's domain.mail.onmicrosoft.com&gt;" | FL &gt; $OutputFilesCollection[9]</t>
+  </si>
+  <si>
+    <t>Get-FederatedOrganizationIdentifier | FL &gt; $OutputFilesCollection[8]</t>
+  </si>
+  <si>
+    <t>Get-FederationTrust | FL &gt; $OutputFilesCollection[7]</t>
+  </si>
+  <si>
+    <t>Get-HybridConfiguration | FL &gt; $OutputFilesCollection[15]</t>
+  </si>
+  <si>
+    <t>Get-HybridConfiguration | FL &gt; $OutputFilesCollection[43]</t>
+  </si>
+  <si>
+    <t>Get-IntraOrganizationConnector | FL &gt; $OutputFilesCollection[2]</t>
+  </si>
+  <si>
+    <t>Get-IntraOrganizationConnector | FL &gt; $OutputFilesCollection[26]</t>
+  </si>
+  <si>
+    <t>Get-IntraOrganizationConfiguration | FL &gt; $OutputFilesCollection[27]</t>
+  </si>
+  <si>
+    <t>Get-Mailbox "&lt;On-Premises Mailbox&gt;" | FL &gt; $OutputFilesCollection[13]</t>
+  </si>
+  <si>
+    <t>Get-Mailbox "&lt;On-Premises Mailbox&gt;" | FL &gt; $OutputFilesCollection[40]</t>
+  </si>
+  <si>
+    <t>Get-OrganizationRelationship | FL &gt; $OutputFilesCollection[0]</t>
+  </si>
+  <si>
+    <t>Get-OrganizationRelationship | FL &gt; $OutputFilesCollection[35]</t>
+  </si>
+  <si>
+    <t>Get-PartnerApplication | FL &gt; $OutputFilesCollection[29]</t>
+  </si>
+  <si>
+    <t>Get-PartnerApplication 00000002-0000-0ff1-ce00-000000000000 | Select-Object -ExpandProperty LinkedAccount | Get-User | FL &gt; $OutputFilesCollection[30]</t>
+  </si>
+  <si>
+    <t>Get-RemoteMailbox "&lt;Cloud Mailbox&gt;" | FL &gt; $OutputFilesCollection[12]</t>
+  </si>
+  <si>
+    <t>Get-RemoteMailbox "&lt;Cloud Mailbox&gt;" | FL &gt; $OutputFilesCollection[39]</t>
+  </si>
+  <si>
+    <t>Get-ExchangeServer | FT name, serverrole, AdminDisplayVersion &gt; $OutputFilesCollection[14]</t>
+  </si>
+  <si>
+    <t>Get-ExchangeServer | FT name, serverrole, AdminDisplayVersion &gt; $OutputFilesCollection[41]</t>
+  </si>
+  <si>
+    <t>Get-SharingPolicy | FL &gt; $OutputFilesCollection[4]</t>
+  </si>
+  <si>
+    <t>Test-FederationTrustCertificate | FL &gt; $OutputFilesCollection[11]</t>
+  </si>
+  <si>
+    <t>Test-FederationTrust -USerIdentity "On-Premise mailbox" &gt; $OutputFilesCollection[10]</t>
+  </si>
+  <si>
+    <t>Test-OAuthConnectivity -Service AutoD  -TargetUri https://autodiscover-s.outlook.com/autodiscover/autodiscover.svc -Mailbox "&lt;On-Premises Mailbox&gt;" -Verbose | FL &gt; $OutputFilesCollection[38]</t>
+  </si>
+  <si>
+    <t>Test-OAuthConnectivity -Service EWS -TargetUri https://outlook.office365.com/ews/exchange.asmx -Mailbox "&lt;On-Premises Mailbox&gt;" -Verbose | FL &gt; $OutputFilesCollection[37]</t>
+  </si>
+  <si>
+    <t>Test-OrganizationRelationship -Identity "On-premises to O365 Organization Relationship" -UserIdentity "&lt;On-Premises Mailbox&gt;" -Verbose &gt; $OutputFilesCollection[1]</t>
+  </si>
+  <si>
+    <t>Get-WebServicesVirtualDirectory | FL &gt; $OutputFilesCollection[33]</t>
+  </si>
+  <si>
+    <t>Get-WebServicesVirtualDirectory | FL &gt; $OutputFilesCollection[5]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -478,21 +771,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -507,16 +837,1167 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Sammy Krosoft" refreshedDate="44282.703669907409" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="57" xr:uid="{217D824D-936C-44D7-9DBE-10CE62D41721}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="category" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Azure MSOL Powershell"/>
+        <s v="Exchange Online"/>
+        <s v="Exchange OnPrem"/>
+        <s v="Oauth Settings Exchange Online"/>
+        <s v="Oauth Settings Exchange OnPrem"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="PS Module" numFmtId="0">
+      <sharedItems count="3">
+        <s v="MSOnline"/>
+        <s v="Exchange Online Services"/>
+        <s v="Exchange Management Shell"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Cmdlet" numFmtId="0">
+      <sharedItems count="32">
+        <s v="(Get-MsolServicePrincipal"/>
+        <s v="Get-MsolServicePrincipal"/>
+        <s v="Get-MsolServicePrincipalCredential"/>
+        <s v="Get-FederatedOrganizationIdentifier  "/>
+        <s v="Get-FederationTrust  "/>
+        <s v="Get-IntraOrganizationConnector  "/>
+        <s v="Get-Mailbox &quot;&lt;Cloud Mailbox&gt;&quot;  "/>
+        <s v="Get-AvailabilityAddressSpace   "/>
+        <s v="Get-MailUser &quot;&lt;On-Premises Mailbox&gt;&quot;   "/>
+        <s v="Get-OrganizationRelationship  "/>
+        <s v="Get-SharingPolicy  "/>
+        <s v="Get-FederationInformation"/>
+        <s v="Test-OrganizationRelationship"/>
+        <s v="Get-AutoDiscoverVirtualDirectory  "/>
+        <s v="Get-AvailabilityAddressSpace  "/>
+        <s v="Get-ExchangeServer  FT name, serverrole, AdminDisplayVersion"/>
+        <s v="Get-FederationTrust  Set-FederationTrust"/>
+        <s v="Get-HybridConfiguration  "/>
+        <s v="Get-Mailbox &quot;&lt;On-Premises Mailbox&gt;&quot;  "/>
+        <s v="Get-RemoteMailbox &quot;&lt;Cloud Mailbox&gt;&quot;  "/>
+        <s v="Get-WebServicesVirtualDirectory  "/>
+        <s v="Test-FederationTrust"/>
+        <s v="Test-FederationTrustCertificate  "/>
+        <s v="Get-AuthServer"/>
+        <s v="Get-IntraOrganizationConfiguration  "/>
+        <s v="Get-PartnerApplication  "/>
+        <s v="Test-OAuthConnectivity"/>
+        <s v="Foreach ($i in (Get-ExchangeServer)) {Write-Host $i.FQDN; Get-ExchangeCertificate"/>
+        <s v="Get-AuthConfig  "/>
+        <s v="Get-AuthServer  "/>
+        <s v="Get-ExchangeCertificate"/>
+        <s v="Get-PartnerApplication 00000002-0000-0ff1-ce00-000000000000  Select-Object"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Command Line" numFmtId="0">
+      <sharedItems count="37">
+        <s v="(Get-MsolServicePrincipal -ServicePrincipalName &quot;00000002-0000-0ff1-ce00-000000000000&quot;).ServicePrincipalNames"/>
+        <s v="Get-MsolServicePrincipal -ServicePrincipalName &quot;00000002-0000-0ff1-ce00-000000000000&quot; | FL "/>
+        <s v="Get-MsolServicePrincipalCredential -ServicePrincipalName &quot;00000002-0000-0ff1-ce00-000000000000&quot; -ReturnKeyValues $true"/>
+        <s v="Get-FederatedOrganizationIdentifier | FL"/>
+        <s v="Get-FederationTrust | FL"/>
+        <s v="Get-IntraOrganizationConnector | FL"/>
+        <s v="Get-Mailbox &quot;&lt;Cloud Mailbox&gt;&quot; | FL"/>
+        <s v="Get-AvailabilityAddressSpace |  FL"/>
+        <s v="Get-MailUser &quot;&lt;On-Premises Mailbox&gt;&quot; | FL "/>
+        <s v="Get-OrganizationRelationship | FL"/>
+        <s v="Get-SharingPolicy | FL"/>
+        <s v="Get-FederationInformation -DomainName &quot;domainname.com&quot; | FL"/>
+        <s v="Test-OrganizationRelationship -UserIdentity &quot;Cloud Mailbox&quot;  -Identity &quot;Exchange Online to On Premises Organization Relationship&quot; -Verbose"/>
+        <s v="Get-AutoDiscoverVirtualDirectory | FL"/>
+        <s v="Get-FederationInformation -Domainname &quot;&lt;Customer's domain.mail.onmicrosoft.com&gt;&quot; | FL"/>
+        <s v="Get-AvailabilityAddressSpace | FL"/>
+        <s v="Get-ExchangeServer | FT name, serverrole, AdminDisplayVersion"/>
+        <s v="Get-FederationTrust | Set-FederationTrust -RefreshMetadata "/>
+        <s v="Get-HybridConfiguration | FL"/>
+        <s v="Get-Mailbox &quot;&lt;On-Premises Mailbox&gt;&quot; | FL"/>
+        <s v="Get-RemoteMailbox &quot;&lt;Cloud Mailbox&gt;&quot; | FL"/>
+        <s v="Get-WebServicesVirtualDirectory | FL"/>
+        <s v="Test-FederationTrust -USerIdentity &quot;On-Premise mailbox&quot;"/>
+        <s v="Test-FederationTrustCertificate | FL"/>
+        <s v="Test-OrganizationRelationship -Identity &quot;On-premises to O365 Organization Relationship&quot; -UserIdentity &quot;&lt;On-Premises Mailbox&gt;&quot; -Verbose"/>
+        <s v="Get-AuthServer -Identity 00000001-0000-0000-c000-000000000000 | FL"/>
+        <s v="Get-IntraOrganizationConfiguration | FL"/>
+        <s v="Get-PartnerApplication | FL"/>
+        <s v="Test-OAuthConnectivity -Service EWS -TargetUri &quot;&lt;OnPremises External EWS url, for example, https://mail.domain.com/ews/exchange.asmx&gt;&quot; -Mailbox &quot;&lt;Exchange Online Mailbox&gt;&quot; -Verbose | FL"/>
+        <s v="Test-OAuthConnectivity -Service AutoD -TargetUri &quot;&lt;OnPremises Autodiscover.svc endpoint, for example, https://mail.domain.com/autodiscover/autodiscover.svc&gt;&quot; -Mailbox &quot;&lt;Exchange Online Mailbox&gt;&quot; -Verbose | FL"/>
+        <s v="Foreach ($i in (Get-ExchangeServer)) {Write-Host $i.FQDN; Get-ExchangeCertificate -Server $i.Identity}"/>
+        <s v="Get-AuthConfig | FL"/>
+        <s v="Get-AuthServer | FL"/>
+        <s v="Get-ExchangeCertificate -Thumbprint (Get-AuthConfig).CurrentCertificateThumbprint | FL"/>
+        <s v="Get-PartnerApplication 00000002-0000-0ff1-ce00-000000000000 | Select-Object -ExpandProperty LinkedAccount | Get-User | FL"/>
+        <s v="Test-OAuthConnectivity -Service EWS -TargetUri https://outlook.office365.com/ews/exchange.asmx -Mailbox &quot;&lt;On-Premises Mailbox&gt;&quot; -Verbose | FL"/>
+        <s v="Test-OAuthConnectivity -Service AutoD  -TargetUri https://autodiscover-s.outlook.com/autodiscover/autodiscover.svc -Mailbox &quot;&lt;On-Premises Mailbox&gt;&quot; -Verbose | FL"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Output" numFmtId="0">
+      <sharedItems count="44">
+        <s v="d:\Msol_ServicePrincipalNames.txt"/>
+        <s v="d:\Msol_ServicePrincipal.txt"/>
+        <s v="d:\Msol_ServicePrincipalCredential.txt"/>
+        <s v="d:\O365_FedOrgIden.txt"/>
+        <s v="d:\O365_FedTrust.txt"/>
+        <s v="d:\O365_IntraOrgCon.txt"/>
+        <s v="d:\O365_Mailbox.txt"/>
+        <s v="d:\O365_AvaiAddSpa.txt"/>
+        <s v="d:\O365_MailUser.txt"/>
+        <s v="d:\O365_OrgRel.txt"/>
+        <s v="d:\O365_SharingPolicy.txt"/>
+        <s v="d:\O365_FedInfo.txt"/>
+        <s v="d:\O365_Test-OrganizationRelationship.txt"/>
+        <s v="d:\OnPrem_AutoDVirDir.txt"/>
+        <s v="d:\OnPrem_FedInfo.txt"/>
+        <s v="d:\OnPrem_AvaiAddSpa.txt"/>
+        <s v="d:\OnPrem_Server.txt"/>
+        <s v=""/>
+        <s v="d:\OnPrem_FedOrgIden.txt"/>
+        <s v="d:\OnPrem_FedTrust.txt"/>
+        <s v="d:\OnPrem_HybridConfig.txt"/>
+        <s v="d:\OnPrem_IntraOrgCon.txt"/>
+        <s v="d:\OnPrem_Mailbox.txt"/>
+        <s v="d:\OnPrem_OrgRel.txt"/>
+        <s v="d:\OnPrem_RemoteMailbox.txt"/>
+        <s v="d:\OnPrem_SharingPolicy.txt"/>
+        <s v="d:\OnPrem_WebSerVirDir.txt"/>
+        <s v="d:\OnPrem_TestFedTrust.txt"/>
+        <s v="d:\OnPrem_TestFedCert.txt"/>
+        <s v="d:\OnPrem_Test-OrganizationRelationship.txt"/>
+        <s v="d:\O365_AuthServer.txt"/>
+        <s v="d:\O365_IntraOrgConfig.txt"/>
+        <s v="d:\O365_PartnerApp.txt"/>
+        <s v="d:\O365_TestOAuthConnectivityEWS.txt"/>
+        <s v="d:\O365_TestOAuthConnectivityAutoD.txt"/>
+        <s v="d:\OnPrem_ExchangeCertificates.txt"/>
+        <s v="d:\OnPrem_AuthConfig.txt"/>
+        <s v="d:\OnPrem_AuthServer.txt"/>
+        <s v="d:\OnPrem_AuthConfigCert.txt"/>
+        <s v="d:\OnPrem_IntraOrgConfig.txt"/>
+        <s v="d:\OnPrem_PartnerAppAcct.txt"/>
+        <s v="d:\OnPrem_ParApp.txt"/>
+        <s v="d:\OnPrem_TestOAuthConnectivityEWS.txt"/>
+        <s v="d:\OnPrem_TestOAuthConnectivityAutoD.txt"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Output index" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="55"/>
+    </cacheField>
+    <cacheField name="New cmdlet line" numFmtId="0">
+      <sharedItems count="57">
+        <s v="(Get-MsolServicePrincipal -ServicePrincipalName &quot;00000002-0000-0ff1-ce00-000000000000&quot;).ServicePrincipalNames &gt; $OutputFilesCollection[54]"/>
+        <s v="Get-MsolServicePrincipal -ServicePrincipalName &quot;00000002-0000-0ff1-ce00-000000000000&quot; | FL  &gt; $OutputFilesCollection[53]"/>
+        <s v="Get-MsolServicePrincipalCredential -ServicePrincipalName &quot;00000002-0000-0ff1-ce00-000000000000&quot; -ReturnKeyValues $true &gt; $OutputFilesCollection[55]"/>
+        <s v="Get-FederatedOrganizationIdentifier | FL &gt; $OutputFilesCollection[23]"/>
+        <s v="Get-FederationTrust | FL &gt; $OutputFilesCollection[21]"/>
+        <s v="Get-IntraOrganizationConnector | FL &gt; $OutputFilesCollection[18]"/>
+        <s v="Get-Mailbox &quot;&lt;Cloud Mailbox&gt;&quot; | FL &gt; $OutputFilesCollection[25]"/>
+        <s v="Get-AvailabilityAddressSpace |  FL &gt; $OutputFilesCollection[19]"/>
+        <s v="Get-MailUser &quot;&lt;On-Premises Mailbox&gt;&quot; | FL  &gt; $OutputFilesCollection[24]"/>
+        <s v="Get-OrganizationRelationship | FL &gt; $OutputFilesCollection[16]"/>
+        <s v="Get-SharingPolicy | FL &gt; $OutputFilesCollection[20]"/>
+        <s v="Get-FederationInformation -DomainName &quot;domainname.com&quot; | FL &gt; $OutputFilesCollection[22]"/>
+        <s v="Test-OrganizationRelationship -UserIdentity &quot;Cloud Mailbox&quot;  -Identity &quot;Exchange Online to On Premises Organization Relationship&quot; -Verbose &gt; $OutputFilesCollection[17]"/>
+        <s v="Get-AutoDiscoverVirtualDirectory | FL &gt; $OutputFilesCollection[6]"/>
+        <s v="Get-FederationInformation -Domainname &quot;&lt;Customer's domain.mail.onmicrosoft.com&gt;&quot; | FL &gt; $OutputFilesCollection[9]"/>
+        <s v="Get-AvailabilityAddressSpace | FL &gt; $OutputFilesCollection[3]"/>
+        <s v="Get-ExchangeServer | FT name, serverrole, AdminDisplayVersion &gt; $OutputFilesCollection[14]"/>
+        <s v="Get-FederationTrust | Set-FederationTrust -RefreshMetadata "/>
+        <s v="Get-FederatedOrganizationIdentifier | FL &gt; $OutputFilesCollection[8]"/>
+        <s v="Get-FederationTrust | FL &gt; $OutputFilesCollection[7]"/>
+        <s v="Get-HybridConfiguration | FL &gt; $OutputFilesCollection[15]"/>
+        <s v="Get-IntraOrganizationConnector | FL &gt; $OutputFilesCollection[2]"/>
+        <s v="Get-Mailbox &quot;&lt;On-Premises Mailbox&gt;&quot; | FL &gt; $OutputFilesCollection[13]"/>
+        <s v="Get-OrganizationRelationship | FL &gt; $OutputFilesCollection[0]"/>
+        <s v="Get-RemoteMailbox &quot;&lt;Cloud Mailbox&gt;&quot; | FL &gt; $OutputFilesCollection[12]"/>
+        <s v="Get-SharingPolicy | FL &gt; $OutputFilesCollection[4]"/>
+        <s v="Get-WebServicesVirtualDirectory | FL &gt; $OutputFilesCollection[5]"/>
+        <s v="Test-FederationTrust -USerIdentity &quot;On-Premise mailbox&quot; &gt; $OutputFilesCollection[10]"/>
+        <s v="Test-FederationTrustCertificate | FL &gt; $OutputFilesCollection[11]"/>
+        <s v="Test-OrganizationRelationship -Identity &quot;On-premises to O365 Organization Relationship&quot; -UserIdentity &quot;&lt;On-Premises Mailbox&gt;&quot; -Verbose &gt; $OutputFilesCollection[1]"/>
+        <s v="Get-AuthServer -Identity 00000001-0000-0000-c000-000000000000 | FL &gt; $OutputFilesCollection[46]"/>
+        <s v="Get-IntraOrganizationConfiguration | FL &gt; $OutputFilesCollection[45]"/>
+        <s v="Get-IntraOrganizationConnector | FL &gt; $OutputFilesCollection[44]"/>
+        <s v="Get-Mailbox &quot;&lt;Cloud Mailbox&gt;&quot; | FL &gt; $OutputFilesCollection[52]"/>
+        <s v="Get-MailUser &quot;&lt;On-Premises Mailbox&gt;&quot; | FL  &gt; $OutputFilesCollection[51]"/>
+        <s v="Get-OrganizationRelationship | FL &gt; $OutputFilesCollection[50]"/>
+        <s v="Get-PartnerApplication | FL &gt; $OutputFilesCollection[47]"/>
+        <s v="Test-OAuthConnectivity -Service EWS -TargetUri &quot;&lt;OnPremises External EWS url, for example, https://mail.domain.com/ews/exchange.asmx&gt;&quot; -Mailbox &quot;&lt;Exchange Online Mailbox&gt;&quot; -Verbose | FL &gt; $OutputFilesCollection[48]"/>
+        <s v="Test-OAuthConnectivity -Service AutoD -TargetUri &quot;&lt;OnPremises Autodiscover.svc endpoint, for example, https://mail.domain.com/autodiscover/autodiscover.svc&gt;&quot; -Mailbox &quot;&lt;Exchange Online Mailbox&gt;&quot; -Verbose | FL &gt; $OutputFilesCollection[49]"/>
+        <s v="Foreach ($i in (Get-ExchangeServer)) {Write-Host $i.FQDN; Get-ExchangeCertificate -Server $i.Identity} &gt; $OutputFilesCollection[42]"/>
+        <s v="Get-AuthConfig | FL &gt; $OutputFilesCollection[31]"/>
+        <s v="Get-AuthServer | FL &gt; $OutputFilesCollection[28]"/>
+        <s v="Get-ExchangeCertificate -Thumbprint (Get-AuthConfig).CurrentCertificateThumbprint | FL &gt; $OutputFilesCollection[32]"/>
+        <s v="Get-AutoDiscoverVirtualDirectory | FL &gt; $OutputFilesCollection[34]"/>
+        <s v="Get-AvailabilityAddressSpace | FL &gt; $OutputFilesCollection[36]"/>
+        <s v="Get-ExchangeServer | FT name, serverrole, AdminDisplayVersion &gt; $OutputFilesCollection[41]"/>
+        <s v="Get-HybridConfiguration | FL &gt; $OutputFilesCollection[43]"/>
+        <s v="Get-IntraOrganizationConfiguration | FL &gt; $OutputFilesCollection[27]"/>
+        <s v="Get-PartnerApplication 00000002-0000-0ff1-ce00-000000000000 | Select-Object -ExpandProperty LinkedAccount | Get-User | FL &gt; $OutputFilesCollection[30]"/>
+        <s v="Get-IntraOrganizationConnector | FL &gt; $OutputFilesCollection[26]"/>
+        <s v="Get-Mailbox &quot;&lt;On-Premises Mailbox&gt;&quot; | FL &gt; $OutputFilesCollection[40]"/>
+        <s v="Get-OrganizationRelationship | FL &gt; $OutputFilesCollection[35]"/>
+        <s v="Get-PartnerApplication | FL &gt; $OutputFilesCollection[29]"/>
+        <s v="Get-RemoteMailbox &quot;&lt;Cloud Mailbox&gt;&quot; | FL &gt; $OutputFilesCollection[39]"/>
+        <s v="Get-WebServicesVirtualDirectory | FL &gt; $OutputFilesCollection[33]"/>
+        <s v="Test-OAuthConnectivity -Service EWS -TargetUri https://outlook.office365.com/ews/exchange.asmx -Mailbox &quot;&lt;On-Premises Mailbox&gt;&quot; -Verbose | FL &gt; $OutputFilesCollection[37]"/>
+        <s v="Test-OAuthConnectivity -Service AutoD  -TargetUri https://autodiscover-s.outlook.com/autodiscover/autodiscover.svc -Mailbox &quot;&lt;On-Premises Mailbox&gt;&quot; -Verbose | FL &gt; $OutputFilesCollection[38]"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="57">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="54"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="53"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="55"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="23"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="21"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="18"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="25"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="19"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="24"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="16"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="20"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <n v="22"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <n v="17"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <n v="6"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="14"/>
+    <x v="14"/>
+    <n v="9"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="15"/>
+    <x v="15"/>
+    <n v="3"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="14"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="17"/>
+    <x v="17"/>
+    <m/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="18"/>
+    <n v="8"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="19"/>
+    <n v="7"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="18"/>
+    <x v="20"/>
+    <n v="15"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="21"/>
+    <n v="2"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="19"/>
+    <x v="22"/>
+    <n v="13"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="23"/>
+    <n v="0"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="20"/>
+    <x v="24"/>
+    <n v="12"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="25"/>
+    <n v="4"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="21"/>
+    <x v="26"/>
+    <n v="5"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="22"/>
+    <x v="27"/>
+    <n v="10"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="22"/>
+    <x v="23"/>
+    <x v="28"/>
+    <n v="11"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="24"/>
+    <x v="29"/>
+    <n v="1"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="25"/>
+    <x v="30"/>
+    <n v="46"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="26"/>
+    <x v="31"/>
+    <n v="45"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="44"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="52"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="51"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="50"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="25"/>
+    <x v="27"/>
+    <x v="32"/>
+    <n v="47"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="26"/>
+    <x v="28"/>
+    <x v="33"/>
+    <n v="48"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="26"/>
+    <x v="29"/>
+    <x v="34"/>
+    <n v="49"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="27"/>
+    <x v="30"/>
+    <x v="35"/>
+    <n v="42"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="28"/>
+    <x v="31"/>
+    <x v="36"/>
+    <n v="31"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="29"/>
+    <x v="32"/>
+    <x v="37"/>
+    <n v="28"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="30"/>
+    <x v="33"/>
+    <x v="38"/>
+    <n v="32"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <n v="34"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="15"/>
+    <x v="15"/>
+    <n v="36"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="41"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="18"/>
+    <x v="20"/>
+    <n v="43"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="24"/>
+    <x v="26"/>
+    <x v="39"/>
+    <n v="27"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="34"/>
+    <x v="40"/>
+    <n v="30"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="21"/>
+    <n v="26"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="19"/>
+    <x v="22"/>
+    <n v="40"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="23"/>
+    <n v="35"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="25"/>
+    <x v="27"/>
+    <x v="41"/>
+    <n v="29"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="20"/>
+    <x v="24"/>
+    <n v="39"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="21"/>
+    <x v="26"/>
+    <n v="33"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="35"/>
+    <x v="42"/>
+    <n v="37"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="36"/>
+    <x v="43"/>
+    <n v="38"/>
+    <x v="56"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CA3E410-855E-4611-B5AD-082DD156D596}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="33">
+        <item x="12"/>
+        <item x="26"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="31"/>
+        <item x="25"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="18"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="24"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="30"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="29"/>
+        <item x="23"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="38">
+        <item x="0"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="33"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="26"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="20"/>
+        <item x="10"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="36"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="35"/>
+        <item x="24"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="45">
+        <item x="17"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="30"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="31"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="32"/>
+        <item x="10"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="12"/>
+        <item x="36"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="35"/>
+        <item x="14"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="39"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="58">
+        <item x="0"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="30"/>
+        <item x="43"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="44"/>
+        <item x="42"/>
+        <item x="16"/>
+        <item x="45"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="17"/>
+        <item x="20"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="31"/>
+        <item x="5"/>
+        <item x="21"/>
+        <item x="49"/>
+        <item x="32"/>
+        <item x="6"/>
+        <item x="33"/>
+        <item x="22"/>
+        <item x="50"/>
+        <item x="8"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="23"/>
+        <item x="9"/>
+        <item x="51"/>
+        <item x="35"/>
+        <item x="52"/>
+        <item x="36"/>
+        <item x="48"/>
+        <item x="24"/>
+        <item x="53"/>
+        <item x="10"/>
+        <item x="25"/>
+        <item x="54"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="56"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="55"/>
+        <item x="29"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="58">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F651205-52DE-4656-9BFD-7199AA021DFD}" name="Table2" displayName="Table2" ref="A1:E58" totalsRowShown="0">
-  <autoFilter ref="A1:E58" xr:uid="{6C66A234-DFE0-4C4A-9591-659205887278}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{903350AE-674A-4D15-9392-D94115F511D8}" name="category"/>
-    <tableColumn id="2" xr3:uid="{FDFC9A22-D8F9-4289-B461-4DCDCBEA0C9C}" name="Cmdlet" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F651205-52DE-4656-9BFD-7199AA021DFD}" name="Table2" displayName="Table2" ref="A1:G59" totalsRowCount="1">
+  <autoFilter ref="A1:G58" xr:uid="{6C66A234-DFE0-4C4A-9591-659205887278}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G58">
+    <sortCondition ref="E1:E58"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{903350AE-674A-4D15-9392-D94115F511D8}" name="category" totalsRowFunction="count"/>
+    <tableColumn id="13" xr3:uid="{160A01CB-D0A5-410C-9772-35DFE560FB23}" name="PS Module"/>
+    <tableColumn id="4" xr3:uid="{DA2B51B4-8F69-40B4-81C3-30CFE59EE93F}" name="Cmdlet" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{FDFC9A22-D8F9-4289-B461-4DCDCBEA0C9C}" name="Command Line" dataDxfId="2" totalsRowDxfId="1"/>
     <tableColumn id="3" xr3:uid="{46175E10-03E5-42FC-853D-2B7D050EBE5B}" name="Output"/>
     <tableColumn id="6" xr3:uid="{BDAC2BE4-F0D9-4DC7-85CD-35010BBDB49F}" name="Output index"/>
-    <tableColumn id="7" xr3:uid="{2B8DA12A-1B3F-4078-8788-93951808E967}" name="New cmdlet line" dataDxfId="0">
-      <calculatedColumnFormula>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{2B8DA12A-1B3F-4078-8788-93951808E967}" name="New cmdlet line" totalsRowFunction="count" dataDxfId="0">
+      <calculatedColumnFormula>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -822,7 +2303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D251AB-F0EA-405B-8CEB-3488E43C627C}">
   <dimension ref="A1:A71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1121,1065 +2602,1734 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250CB1DA-0399-43C9-B772-F91C142D56B4}">
-  <dimension ref="A1:E58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14CC315-C107-432E-9F32-E06B6231C2DC}">
+  <dimension ref="A3:A61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.140625" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="153.5703125" customWidth="1"/>
+    <col min="1" max="1" width="211.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250CB1DA-0399-43C9-B772-F91C142D56B4}">
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="117" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
       <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-OrganizationRelationship | FL &gt; $OutputFilesCollection[0]</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-FederationTrust | Set-FederationTrust -RefreshMetadata </v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3">
+        <v>53</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-MsolServicePrincipal -ServicePrincipalName "00000002-0000-0ff1-ce00-000000000000" | FL  &gt; $OutputFilesCollection[53]</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <v>55</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-MsolServicePrincipalCredential -ServicePrincipalName "00000002-0000-0ff1-ce00-000000000000" -ReturnKeyValues $true &gt; $OutputFilesCollection[55]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5">
+        <v>54</v>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>(Get-MsolServicePrincipal -ServicePrincipalName "00000002-0000-0ff1-ce00-000000000000").ServicePrincipalNames &gt; $OutputFilesCollection[54]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6">
+        <v>46</v>
+      </c>
+      <c r="G6" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-AuthServer -Identity 00000001-0000-0000-c000-000000000000 | FL &gt; $OutputFilesCollection[46]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7">
+        <v>19</v>
+      </c>
+      <c r="G7" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-AvailabilityAddressSpace |  FL &gt; $OutputFilesCollection[19]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-FederationInformation -DomainName "domainname.com" | FL &gt; $OutputFilesCollection[22]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+      <c r="G9" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-FederatedOrganizationIdentifier | FL &gt; $OutputFilesCollection[23]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10">
+        <v>21</v>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-FederationTrust | FL &gt; $OutputFilesCollection[21]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11">
+        <v>44</v>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Test-OrganizationRelationship -Identity "On-premises to O365 Organization Relationship" -UserIdentity "&lt;On-Premises Mailbox&gt;" -Verbose &gt; $OutputFilesCollection[1]</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-IntraOrganizationConnector | FL &gt; $OutputFilesCollection[2]</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-AvailabilityAddressSpace | FL &gt; $OutputFilesCollection[3]</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-SharingPolicy | FL &gt; $OutputFilesCollection[4]</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-WebServicesVirtualDirectory | FL &gt; $OutputFilesCollection[5]</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-AutoDiscoverVirtualDirectory | FL &gt; $OutputFilesCollection[6]</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-FederationTrust | Set-FederationTrust -RefreshMetadata </v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-FederationTrust | FL &gt; $OutputFilesCollection[7]</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-FederatedOrganizationIdentifier | FL &gt; $OutputFilesCollection[8]</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-FederationInformation -Domainname "&lt;Customer's domain.mail.onmicrosoft.com&gt;" | FL &gt; $OutputFilesCollection[9]</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12">
+        <v>18</v>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-IntraOrganizationConnector | FL &gt; $OutputFilesCollection[18]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Test-FederationTrust -USerIdentity "On-Premise mailbox" &gt; $OutputFilesCollection[10]</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13">
+        <v>45</v>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-IntraOrganizationConfiguration | FL &gt; $OutputFilesCollection[45]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Test-FederationTrustCertificate | FL &gt; $OutputFilesCollection[11]</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14">
+        <v>52</v>
+      </c>
+      <c r="G14" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-RemoteMailbox "&lt;Cloud Mailbox&gt;" | FL &gt; $OutputFilesCollection[12]</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-Mailbox "&lt;Cloud Mailbox&gt;" | FL &gt; $OutputFilesCollection[25]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-Mailbox "&lt;On-Premises Mailbox&gt;" | FL &gt; $OutputFilesCollection[13]</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16">
+        <v>51</v>
+      </c>
+      <c r="G16" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="E17" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-ExchangeServer | FT name, serverrole, AdminDisplayVersion &gt; $OutputFilesCollection[14]</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17">
+        <v>24</v>
+      </c>
+      <c r="G17" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-MailUser "&lt;On-Premises Mailbox&gt;" | FL  &gt; $OutputFilesCollection[24]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18">
-        <v>16</v>
-      </c>
-      <c r="E18" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-HybridConfiguration | FL &gt; $OutputFilesCollection[15]</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
         <v>75</v>
       </c>
-      <c r="D19">
-        <v>17</v>
-      </c>
-      <c r="E19" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
         <v>Get-OrganizationRelationship | FL &gt; $OutputFilesCollection[16]</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20">
-        <v>18</v>
-      </c>
-      <c r="E20" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Test-OrganizationRelationship -UserIdentity "Cloud Mailbox"  -Identity "Exchange Online to On Premises Organization Relationship" -Verbose &gt; $OutputFilesCollection[17]</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20">
+        <v>47</v>
+      </c>
+      <c r="G20" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-PartnerApplication | FL &gt; $OutputFilesCollection[47]</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21">
-        <v>19</v>
-      </c>
-      <c r="E21" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-IntraOrganizationConnector | FL &gt; $OutputFilesCollection[18]</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-SharingPolicy | FL &gt; $OutputFilesCollection[20]</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-      <c r="E22" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-AvailabilityAddressSpace |  FL &gt; $OutputFilesCollection[19]</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22">
+        <v>49</v>
+      </c>
+      <c r="G22" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Test-OAuthConnectivity -Service AutoD -TargetUri "&lt;OnPremises Autodiscover.svc endpoint, for example, https://mail.domain.com/autodiscover/autodiscover.svc&gt;" -Mailbox "&lt;Exchange Online Mailbox&gt;" -Verbose | FL &gt; $OutputFilesCollection[49]</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23">
-        <v>21</v>
-      </c>
-      <c r="E23" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-SharingPolicy | FL &gt; $OutputFilesCollection[20]</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23">
+        <v>48</v>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Test-OAuthConnectivity -Service EWS -TargetUri "&lt;OnPremises External EWS url, for example, https://mail.domain.com/ews/exchange.asmx&gt;" -Mailbox "&lt;Exchange Online Mailbox&gt;" -Verbose | FL &gt; $OutputFilesCollection[48]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24">
-        <v>22</v>
-      </c>
-      <c r="E24" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-FederationTrust | FL &gt; $OutputFilesCollection[21]</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24">
+        <v>17</v>
+      </c>
+      <c r="G24" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Test-OrganizationRelationship -UserIdentity "Cloud Mailbox"  -Identity "Exchange Online to On Premises Organization Relationship" -Verbose &gt; $OutputFilesCollection[17]</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25">
-        <v>23</v>
-      </c>
-      <c r="E25" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-FederationInformation -DomainName "domainname.com" | FL &gt; $OutputFilesCollection[22]</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25">
+        <v>31</v>
+      </c>
+      <c r="G25" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-AuthConfig | FL &gt; $OutputFilesCollection[31]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26">
-        <v>24</v>
-      </c>
-      <c r="E26" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-FederatedOrganizationIdentifier | FL &gt; $OutputFilesCollection[23]</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26">
+        <v>32</v>
+      </c>
+      <c r="G26" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-ExchangeCertificate -Thumbprint (Get-AuthConfig).CurrentCertificateThumbprint | FL &gt; $OutputFilesCollection[32]</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27">
-        <v>25</v>
-      </c>
-      <c r="E27" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-MailUser "&lt;On-Premises Mailbox&gt;" | FL  &gt; $OutputFilesCollection[24]</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27">
+        <v>28</v>
+      </c>
+      <c r="G27" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-AuthServer | FL &gt; $OutputFilesCollection[28]</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28">
-        <v>26</v>
-      </c>
-      <c r="E28" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-Mailbox "&lt;Cloud Mailbox&gt;" | FL &gt; $OutputFilesCollection[25]</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28">
+        <v>34</v>
+      </c>
+      <c r="G28" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29">
-        <v>27</v>
-      </c>
-      <c r="E29" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-IntraOrganizationConnector | FL &gt; $OutputFilesCollection[26]</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-AutoDiscoverVirtualDirectory | FL &gt; $OutputFilesCollection[6]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30">
-        <v>28</v>
-      </c>
-      <c r="E30" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-IntraOrganizationConfiguration | FL &gt; $OutputFilesCollection[27]</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30">
+        <v>36</v>
+      </c>
+      <c r="G30" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31">
-        <v>29</v>
-      </c>
-      <c r="E31" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-AuthServer | FL &gt; $OutputFilesCollection[28]</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-AvailabilityAddressSpace | FL &gt; $OutputFilesCollection[3]</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32">
-        <v>30</v>
-      </c>
-      <c r="E32" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-PartnerApplication | FL &gt; $OutputFilesCollection[29]</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32">
+        <v>42</v>
+      </c>
+      <c r="G32" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Foreach ($i in (Get-ExchangeServer)) {Write-Host $i.FQDN; Get-ExchangeCertificate -Server $i.Identity} &gt; $OutputFilesCollection[42]</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33">
-        <v>31</v>
-      </c>
-      <c r="E33" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-PartnerApplication 00000002-0000-0ff1-ce00-000000000000 | Select-Object -ExpandProperty LinkedAccount | Get-User | FL &gt; $OutputFilesCollection[30]</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="G33" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-FederationInformation -Domainname "&lt;Customer's domain.mail.onmicrosoft.com&gt;" | FL &gt; $OutputFilesCollection[9]</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34">
-        <v>32</v>
-      </c>
-      <c r="E34" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-AuthConfig | FL &gt; $OutputFilesCollection[31]</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-FederatedOrganizationIdentifier | FL &gt; $OutputFilesCollection[8]</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35">
-        <v>33</v>
-      </c>
-      <c r="E35" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-ExchangeCertificate -Thumbprint (Get-AuthConfig).CurrentCertificateThumbprint | FL &gt; $OutputFilesCollection[32]</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-FederationTrust | FL &gt; $OutputFilesCollection[7]</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36">
-        <v>34</v>
-      </c>
-      <c r="E36" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-WebServicesVirtualDirectory | FL &gt; $OutputFilesCollection[33]</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36">
+        <v>43</v>
+      </c>
+      <c r="G36" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37">
-        <v>35</v>
-      </c>
-      <c r="E37" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-AutoDiscoverVirtualDirectory | FL &gt; $OutputFilesCollection[34]</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37">
+        <v>15</v>
+      </c>
+      <c r="G37" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-HybridConfiguration | FL &gt; $OutputFilesCollection[15]</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38">
-        <v>36</v>
-      </c>
-      <c r="E38" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-OrganizationRelationship | FL &gt; $OutputFilesCollection[35]</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38">
+        <v>26</v>
+      </c>
+      <c r="G38" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39">
-        <v>37</v>
-      </c>
-      <c r="E39" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-AvailabilityAddressSpace | FL &gt; $OutputFilesCollection[36]</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-IntraOrganizationConnector | FL &gt; $OutputFilesCollection[2]</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40">
-        <v>38</v>
-      </c>
-      <c r="E40" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Test-OAuthConnectivity -Service EWS -TargetUri https://outlook.office365.com/ews/exchange.asmx -Mailbox "&lt;On-Premises Mailbox&gt;" -Verbose | FL &gt; $OutputFilesCollection[37]</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40">
+        <v>27</v>
+      </c>
+      <c r="G40" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-IntraOrganizationConfiguration | FL &gt; $OutputFilesCollection[27]</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41">
-        <v>39</v>
-      </c>
-      <c r="E41" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Test-OAuthConnectivity -Service AutoD  -TargetUri https://autodiscover-s.outlook.com/autodiscover/autodiscover.svc -Mailbox "&lt;On-Premises Mailbox&gt;" -Verbose | FL &gt; $OutputFilesCollection[38]</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+      <c r="G41" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C42" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42">
-        <v>40</v>
-      </c>
-      <c r="E42" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-RemoteMailbox "&lt;Cloud Mailbox&gt;" | FL &gt; $OutputFilesCollection[39]</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42">
+        <v>13</v>
+      </c>
+      <c r="G42" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-Mailbox "&lt;On-Premises Mailbox&gt;" | FL &gt; $OutputFilesCollection[13]</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43">
-        <v>41</v>
-      </c>
-      <c r="E43" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-Mailbox "&lt;On-Premises Mailbox&gt;" | FL &gt; $OutputFilesCollection[40]</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43">
+        <v>35</v>
+      </c>
+      <c r="G43" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44">
-        <v>42</v>
-      </c>
-      <c r="E44" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-ExchangeServer | FT name, serverrole, AdminDisplayVersion &gt; $OutputFilesCollection[41]</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-OrganizationRelationship | FL &gt; $OutputFilesCollection[0]</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45">
-        <v>43</v>
-      </c>
-      <c r="E45" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Foreach ($i in (Get-ExchangeServer)) {Write-Host $i.FQDN; Get-ExchangeCertificate -Server $i.Identity} &gt; $OutputFilesCollection[42]</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45">
+        <v>29</v>
+      </c>
+      <c r="G45" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-PartnerApplication | FL &gt; $OutputFilesCollection[29]</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46">
-        <v>44</v>
-      </c>
-      <c r="E46" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-HybridConfiguration | FL &gt; $OutputFilesCollection[43]</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46">
+        <v>30</v>
+      </c>
+      <c r="G46" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-PartnerApplication 00000002-0000-0ff1-ce00-000000000000 | Select-Object -ExpandProperty LinkedAccount | Get-User | FL &gt; $OutputFilesCollection[30]</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47">
-        <v>45</v>
-      </c>
-      <c r="E47" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-IntraOrganizationConnector | FL &gt; $OutputFilesCollection[44]</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47">
+        <v>39</v>
+      </c>
+      <c r="G47" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48">
-        <v>46</v>
-      </c>
-      <c r="E48" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-IntraOrganizationConfiguration | FL &gt; $OutputFilesCollection[45]</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49">
         <v>47</v>
       </c>
-      <c r="E49" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-AuthServer -Identity 00000001-0000-0000-c000-000000000000 | FL &gt; $OutputFilesCollection[46]</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50">
-        <v>48</v>
-      </c>
-      <c r="E50" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-PartnerApplication | FL &gt; $OutputFilesCollection[47]</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48">
+        <v>12</v>
+      </c>
+      <c r="G48" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-RemoteMailbox "&lt;Cloud Mailbox&gt;" | FL &gt; $OutputFilesCollection[12]</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="4">
+        <v>41</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="4">
+        <v>14</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-ExchangeServer | FT name, serverrole, AdminDisplayVersion &gt; $OutputFilesCollection[14]</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51">
-        <v>49</v>
-      </c>
-      <c r="E51" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Test-OAuthConnectivity -Service EWS -TargetUri "&lt;OnPremises External EWS url, for example, https://mail.domain.com/ews/exchange.asmx&gt;" -Mailbox "&lt;Exchange Online Mailbox&gt;" -Verbose | FL &gt; $OutputFilesCollection[48]</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-SharingPolicy | FL &gt; $OutputFilesCollection[4]</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52">
-        <v>50</v>
-      </c>
-      <c r="E52" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Test-OAuthConnectivity -Service AutoD -TargetUri "&lt;OnPremises Autodiscover.svc endpoint, for example, https://mail.domain.com/autodiscover/autodiscover.svc&gt;" -Mailbox "&lt;Exchange Online Mailbox&gt;" -Verbose | FL &gt; $OutputFilesCollection[49]</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
+      </c>
+      <c r="G52" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Test-FederationTrustCertificate | FL &gt; $OutputFilesCollection[11]</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Test-FederationTrust -USerIdentity "On-Premise mailbox" &gt; $OutputFilesCollection[10]</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54">
+        <v>38</v>
+      </c>
+      <c r="G54" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Test-OAuthConnectivity -Service AutoD  -TargetUri https://autodiscover-s.outlook.com/autodiscover/autodiscover.svc -Mailbox "&lt;On-Premises Mailbox&gt;" -Verbose | FL &gt; $OutputFilesCollection[38]</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55">
+        <v>37</v>
+      </c>
+      <c r="G55" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Test-OAuthConnectivity -Service EWS -TargetUri https://outlook.office365.com/ews/exchange.asmx -Mailbox "&lt;On-Premises Mailbox&gt;" -Verbose | FL &gt; $OutputFilesCollection[37]</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C53" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53">
-        <v>51</v>
-      </c>
-      <c r="E53" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-OrganizationRelationship | FL &gt; $OutputFilesCollection[50]</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54">
+      <c r="E56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Test-OrganizationRelationship -Identity "On-premises to O365 Organization Relationship" -UserIdentity "&lt;On-Premises Mailbox&gt;" -Verbose &gt; $OutputFilesCollection[1]</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>52</v>
       </c>
-      <c r="E54" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-MailUser "&lt;On-Premises Mailbox&gt;" | FL  &gt; $OutputFilesCollection[51]</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55">
-        <v>53</v>
-      </c>
-      <c r="E55" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-Mailbox "&lt;Cloud Mailbox&gt;" | FL &gt; $OutputFilesCollection[52]</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56">
-        <v>54</v>
-      </c>
-      <c r="E56" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-MsolServicePrincipal -ServicePrincipalName "00000002-0000-0ff1-ce00-000000000000" | FL  &gt; $OutputFilesCollection[53]</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C57" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57">
-        <v>55</v>
-      </c>
-      <c r="E57" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>(Get-MsolServicePrincipal -ServicePrincipalName "00000002-0000-0ff1-ce00-000000000000").ServicePrincipalNames &gt; $OutputFilesCollection[54]</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57">
+        <v>33</v>
+      </c>
+      <c r="G57" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58">
-        <v>56</v>
-      </c>
-      <c r="E58" t="str">
-        <f>IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Cmdlet]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]-1&amp;"]",Table2[[#This Row],[Cmdlet]])</f>
-        <v>Get-MsolServicePrincipalCredential -ServicePrincipalName "00000002-0000-0ff1-ce00-000000000000" -ReturnKeyValues $true &gt; $OutputFilesCollection[55]</v>
+        <v>47</v>
+      </c>
+      <c r="B58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58" t="str">
+        <f>IF(Table2[[#This Row],[Command Line]]="","",IF(Table2[[#This Row],[Output]]&lt;&gt;"",Table2[[#This Row],[Command Line]]&amp;" &gt; $OutputFilesCollection["&amp;Table2[[#This Row],[Output index]]&amp;"]",Table2[[#This Row],[Command Line]]))</f>
+        <v>Get-WebServicesVirtualDirectory | FL &gt; $OutputFilesCollection[5]</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>SUBTOTAL(103,Table2[category])</f>
+        <v>57</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="G59">
+        <f>SUBTOTAL(103,Table2[New cmdlet line])</f>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E2:E58">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D58">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5C13A-1670-41E3-AAFC-2781FA36B824}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>